--- a/sample_rooms.xlsx
+++ b/sample_rooms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8610590cbf95aee3/Desktop/Darsh/thesis-scheduler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_F25DC773A252ABDACC104824611C5F9A5BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49C967E3-B2A0-49F1-ABF5-F50065875581}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_F25DC773A252ABDACC104824611C5F9A5BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63D2DBE5-049B-43D3-B503-232BDA7CEE22}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Room Name</t>
   </si>
   <si>
-    <t>Room A</t>
+    <t>C5.101</t>
+  </si>
+  <si>
+    <t>C5.102</t>
+  </si>
+  <si>
+    <t>C5.103</t>
+  </si>
+  <si>
+    <t>C5.104</t>
+  </si>
+  <si>
+    <t>C5.105</t>
+  </si>
+  <si>
+    <t>C5.106</t>
+  </si>
+  <si>
+    <t>C5.107</t>
+  </si>
+  <si>
+    <t>C5.108</t>
+  </si>
+  <si>
+    <t>C5.109</t>
+  </si>
+  <si>
+    <t>C5.110</t>
+  </si>
+  <si>
+    <t>C5.111</t>
+  </si>
+  <si>
+    <t>C5.112</t>
   </si>
 </sst>
 </file>
@@ -366,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -388,7 +421,59 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sample_rooms.xlsx
+++ b/sample_rooms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8610590cbf95aee3/Desktop/Darsh/thesis-scheduler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_F25DC773A252ABDACC104824611C5F9A5BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63D2DBE5-049B-43D3-B503-232BDA7CEE22}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="11_F25DC773A252ABDACC104824611C5F9A5BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E737ACF3-F23C-428E-9C14-D282964A1E7F}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-78" yWindow="0" windowWidth="11676" windowHeight="13758" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,40 +30,40 @@
     <t>Room Name</t>
   </si>
   <si>
-    <t>C5.101</t>
-  </si>
-  <si>
-    <t>C5.102</t>
-  </si>
-  <si>
-    <t>C5.103</t>
-  </si>
-  <si>
-    <t>C5.104</t>
-  </si>
-  <si>
-    <t>C5.105</t>
-  </si>
-  <si>
-    <t>C5.106</t>
-  </si>
-  <si>
-    <t>C5.107</t>
-  </si>
-  <si>
     <t>C5.108</t>
   </si>
   <si>
-    <t>C5.109</t>
-  </si>
-  <si>
-    <t>C5.110</t>
-  </si>
-  <si>
-    <t>C5.111</t>
-  </si>
-  <si>
-    <t>C5.112</t>
+    <t>C5.204</t>
+  </si>
+  <si>
+    <t>C5.211</t>
+  </si>
+  <si>
+    <t>C5.212</t>
+  </si>
+  <si>
+    <t>C5.301</t>
+  </si>
+  <si>
+    <t>C5.302</t>
+  </si>
+  <si>
+    <t>C5.304</t>
+  </si>
+  <si>
+    <t>C5.305</t>
+  </si>
+  <si>
+    <t>C5.306</t>
+  </si>
+  <si>
+    <t>C5.308</t>
+  </si>
+  <si>
+    <t>C5.311</t>
+  </si>
+  <si>
+    <t>C5.312</t>
   </si>
 </sst>
 </file>
